--- a/LLM/4.RAG/2.pre-processing/pp_structure.demo/output_pp_structure/综合/[141, 629, 1124, 821]_0.xlsx
+++ b/LLM/4.RAG/2.pre-processing/pp_structure.demo/output_pp_structure/综合/[141, 629, 1124, 821]_0.xlsx
@@ -52,7 +52,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
